--- a/miscellaneous/data/conversion/cyril_conversion.xlsx
+++ b/miscellaneous/data/conversion/cyril_conversion.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85</v>
+        <v>88.33333333333333</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75.83333333333333</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80.83333333333333</v>
+        <v>67.5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>

--- a/miscellaneous/data/conversion/cyril_conversion.xlsx
+++ b/miscellaneous/data/conversion/cyril_conversion.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88.33333333333333</v>
+        <v>85.83333333333333</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68.33333333333333</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67.5</v>
+        <v>60.83333333333334</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82.5</v>
+        <v>81.66666666666667</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
